--- a/TristanKEREVAL-patch-1/ig/StructureDefinition-accomodation-unit.xlsx
+++ b/TristanKEREVAL-patch-1/ig/StructureDefinition-accomodation-unit.xlsx
@@ -27,7 +27,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://ltsi.univ-rennes.fr/StructureDefinition/AccomodationUnit</t>
+    <t>http://ltsi.univ-rennes.fr/StructureDefinition/accomodation-unit</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-03-25T09:47:39+00:00</t>
+    <t>2024-03-27T10:49:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -817,7 +817,7 @@
     <t>Location.managingOrganization</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/MedicalLiabilityUnit)
+    <t xml:space="preserve">Reference(http://ltsi.univ-rennes.fr/StructureDefinition/Medical-liability-unit)
 </t>
   </si>
   <si>
@@ -1264,7 +1264,7 @@
     <col min="8" max="8" width="16.27734375" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="13.26171875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="70.16015625" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="70.7890625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
